--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value241.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value241.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.2068490134185211</v>
+        <v>1.161740779876709</v>
       </c>
       <c r="B1">
-        <v>0.2197062881344107</v>
+        <v>2.125133037567139</v>
       </c>
       <c r="C1">
-        <v>0.2491794028478534</v>
+        <v>3.39498496055603</v>
       </c>
       <c r="D1">
-        <v>0.3960126345468777</v>
+        <v>3.630847454071045</v>
       </c>
       <c r="E1">
-        <v>1.355088482629462</v>
+        <v>1.18119490146637</v>
       </c>
     </row>
   </sheetData>
